--- a/Tables/Intermediate- Appendix.xlsx
+++ b/Tables/Intermediate- Appendix.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>2001-09-07</t>
+          <t>2008-02-20</t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="AD4" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE4" s="1" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>2011-03-23</t>
+          <t>2011-05-10</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr"/>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>0.418</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2012-09-06</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr"/>
@@ -2535,142 +2535,6 @@
         </is>
       </c>
       <c r="AG15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substantial
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>R-19 S2</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>7066.3</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>893.3</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>909.600</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
-        <is>
-          <t>original x, y, z = 1629920.1,1760250, 7066.9, Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
-        </is>
-      </c>
-      <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
-      <c r="O16" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P16" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q16" s="1" t="inlineStr"/>
-      <c r="R16" s="1" t="inlineStr"/>
-      <c r="S16" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T16" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
-      <c r="U16" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V16" s="1" t="inlineStr">
-        <is>
-          <t>46.6</t>
-        </is>
-      </c>
-      <c r="W16" s="1" t="inlineStr">
-        <is>
-          <t>2009-03-10</t>
-        </is>
-      </c>
-      <c r="X16" s="1" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="Y16" s="1" t="inlineStr">
-        <is>
-          <t>2014-04-09</t>
-        </is>
-      </c>
-      <c r="Z16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD16" s="1" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AE16" s="1" t="inlineStr"/>
-      <c r="AF16" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG16" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -2688,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2864,12 +2728,12 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>9/7/01</t>
+          <t>2/20/08</t>
         </is>
       </c>
     </row>
@@ -3040,19 +2904,19 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>3/23/11</t>
+          <t>5/10/11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Los Alamos and Pajarito Canyons</t>
         </is>
       </c>
       <c r="H12" s="5" t="n"/>
@@ -3268,7 +3132,7 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -3316,40 +3180,6 @@
       <c r="H19" s="1" t="inlineStr">
         <is>
           <t>8/23/06</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>R-19 S2</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>893.3 - 909.6</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>46.6</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>3/10/09</t>
         </is>
       </c>
     </row>

--- a/Tables/Intermediate- Appendix.xlsx
+++ b/Tables/Intermediate- Appendix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>2008-02-20</t>
+          <t>2001-09-07</t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>2011-05-10</t>
+          <t>2011-03-23</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2005-08-10</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>1998-05-29</t>
+          <t>2005-03-24</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>2/20/08</t>
+          <t>9/7/01</t>
         </is>
       </c>
     </row>
@@ -2904,12 +2904,12 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>5/10/11</t>
+          <t>3/23/11</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>8/10/05</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3090,12 @@
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>5/29/98</t>
+          <t>3/24/05</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">

--- a/Tables/Intermediate- Appendix.xlsx
+++ b/Tables/Intermediate- Appendix.xlsx
@@ -795,12 +795,12 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>216.0</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>1998-10-15</t>
+          <t>1998-06-09</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.3962</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>2013-07-25</t>
+          <t>2011-06-03</t>
         </is>
       </c>
       <c r="Z4" s="1" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2005-09-14</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.418</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2012-09-06</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>2005-12-20</t>
+          <t>2005-03-24</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">

--- a/Tables/Intermediate- Appendix.xlsx
+++ b/Tables/Intermediate- Appendix.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>1.3962</t>
+          <t>1.155</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
@@ -2560,12 +2560,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>

--- a/Tables/Intermediate- Appendix.xlsx
+++ b/Tables/Intermediate- Appendix.xlsx
@@ -1043,7 +1043,7 @@
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -2552,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2562,7 +2562,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -2740,7 +2740,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
@@ -2916,7 +2916,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Los Alamos and Pajarito Canyons</t>
+          <t>Los Alamos Canyon</t>
         </is>
       </c>
       <c r="H12" s="5" t="n"/>
@@ -3142,53 +3142,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>03-B-10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>35.87372</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>-106.33012</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>6/4/05</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E20" s="1" t="inlineStr">
         <is>
           <t>31.1</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>20.6 - 30.6</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>15.6</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H20" s="1" t="inlineStr">
         <is>
           <t>8/23/06</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
